--- a/Code/Results/Cases/Case_1_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9963984669257593</v>
+        <v>1.025624586480298</v>
       </c>
       <c r="D2">
-        <v>1.030062757693609</v>
+        <v>1.033405549184609</v>
       </c>
       <c r="E2">
-        <v>1.003330535505015</v>
+        <v>1.025954472687689</v>
       </c>
       <c r="F2">
-        <v>1.005481371176919</v>
+        <v>1.037173900432384</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046888371410256</v>
+        <v>1.035929501502842</v>
       </c>
       <c r="J2">
-        <v>1.018687435443224</v>
+        <v>1.030792566634761</v>
       </c>
       <c r="K2">
-        <v>1.041118574744433</v>
+        <v>1.036207992280795</v>
       </c>
       <c r="L2">
-        <v>1.014743664872272</v>
+        <v>1.028778532994936</v>
       </c>
       <c r="M2">
-        <v>1.016864866365428</v>
+        <v>1.039965539177091</v>
       </c>
       <c r="N2">
-        <v>1.020134088446631</v>
+        <v>1.032256410312949</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000868842460586</v>
+        <v>1.026557352035538</v>
       </c>
       <c r="D3">
-        <v>1.032603036734803</v>
+        <v>1.033926613548358</v>
       </c>
       <c r="E3">
-        <v>1.006890510224298</v>
+        <v>1.026745781259389</v>
       </c>
       <c r="F3">
-        <v>1.010767054843365</v>
+        <v>1.038345384730879</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048270338807282</v>
+        <v>1.036148148833666</v>
       </c>
       <c r="J3">
-        <v>1.02133584994482</v>
+        <v>1.031364831758593</v>
       </c>
       <c r="K3">
-        <v>1.042835081689298</v>
+        <v>1.036538799109067</v>
       </c>
       <c r="L3">
-        <v>1.017435978375356</v>
+        <v>1.02937729738806</v>
       </c>
       <c r="M3">
-        <v>1.021263998162676</v>
+        <v>1.04094581874574</v>
       </c>
       <c r="N3">
-        <v>1.022786264000601</v>
+        <v>1.03282948811889</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003700637858479</v>
+        <v>1.027161159777449</v>
       </c>
       <c r="D4">
-        <v>1.034214701783992</v>
+        <v>1.034263762112921</v>
       </c>
       <c r="E4">
-        <v>1.009151623186576</v>
+        <v>1.027258408185518</v>
       </c>
       <c r="F4">
-        <v>1.014116239105968</v>
+        <v>1.039103866130239</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04913465709222</v>
+        <v>1.036288288934316</v>
       </c>
       <c r="J4">
-        <v>1.023010152326342</v>
+        <v>1.031734770078981</v>
       </c>
       <c r="K4">
-        <v>1.043917004175298</v>
+        <v>1.036752125522592</v>
       </c>
       <c r="L4">
-        <v>1.019140836864673</v>
+        <v>1.029764682354929</v>
       </c>
       <c r="M4">
-        <v>1.024047227400319</v>
+        <v>1.041580006727537</v>
       </c>
       <c r="N4">
-        <v>1.02446294408355</v>
+        <v>1.033199951794125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004877087250239</v>
+        <v>1.027415058809269</v>
       </c>
       <c r="D5">
-        <v>1.034884773085187</v>
+        <v>1.034405494291105</v>
       </c>
       <c r="E5">
-        <v>1.010092387598063</v>
+        <v>1.027474058468713</v>
       </c>
       <c r="F5">
-        <v>1.01550789802261</v>
+        <v>1.039422840144032</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049491022094365</v>
+        <v>1.036346882638335</v>
       </c>
       <c r="J5">
-        <v>1.023704894892167</v>
+        <v>1.031890206374364</v>
       </c>
       <c r="K5">
-        <v>1.044365123409838</v>
+        <v>1.036841632783871</v>
       </c>
       <c r="L5">
-        <v>1.019848929241732</v>
+        <v>1.029927524896414</v>
       </c>
       <c r="M5">
-        <v>1.025202691281708</v>
+        <v>1.041846590893657</v>
       </c>
       <c r="N5">
-        <v>1.025158673263507</v>
+        <v>1.033355608826877</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00507380993254</v>
+        <v>1.027457692971336</v>
       </c>
       <c r="D6">
-        <v>1.034996848543816</v>
+        <v>1.034429291405752</v>
       </c>
       <c r="E6">
-        <v>1.010249780819161</v>
+        <v>1.027510275390987</v>
       </c>
       <c r="F6">
-        <v>1.015740624155814</v>
+        <v>1.039476403644662</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049550451835457</v>
+        <v>1.036356701927993</v>
       </c>
       <c r="J6">
-        <v>1.023821017970792</v>
+        <v>1.031916299762925</v>
       </c>
       <c r="K6">
-        <v>1.044439975179589</v>
+        <v>1.036856651147732</v>
       </c>
       <c r="L6">
-        <v>1.019967323068419</v>
+        <v>1.02995486602624</v>
       </c>
       <c r="M6">
-        <v>1.025395857686783</v>
+        <v>1.041891349876214</v>
       </c>
       <c r="N6">
-        <v>1.025274961250223</v>
+        <v>1.033381739271042</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003716412112189</v>
+        <v>1.027164552160635</v>
       </c>
       <c r="D7">
-        <v>1.034223684408641</v>
+        <v>1.034265655967084</v>
       </c>
       <c r="E7">
-        <v>1.00916423181217</v>
+        <v>1.027261289158862</v>
       </c>
       <c r="F7">
-        <v>1.014134897869204</v>
+        <v>1.039108127850485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049139446128919</v>
+        <v>1.036289073129025</v>
       </c>
       <c r="J7">
-        <v>1.023019471017807</v>
+        <v>1.031736847364247</v>
       </c>
       <c r="K7">
-        <v>1.043923018159601</v>
+        <v>1.036753322212461</v>
       </c>
       <c r="L7">
-        <v>1.019150331970256</v>
+        <v>1.029766858321317</v>
       </c>
       <c r="M7">
-        <v>1.024062723449807</v>
+        <v>1.041583568950176</v>
       </c>
       <c r="N7">
-        <v>1.024472276008625</v>
+        <v>1.033202032029374</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9979221740627552</v>
+        <v>1.025939767628826</v>
       </c>
       <c r="D8">
-        <v>1.030928022196713</v>
+        <v>1.033581647511916</v>
       </c>
       <c r="E8">
-        <v>1.004542647223834</v>
+        <v>1.026221774782424</v>
       </c>
       <c r="F8">
-        <v>1.007282804623843</v>
+        <v>1.037569715326242</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047361708665149</v>
+        <v>1.036003671379615</v>
       </c>
       <c r="J8">
-        <v>1.019590821802458</v>
+        <v>1.03098603951383</v>
       </c>
       <c r="K8">
-        <v>1.041704737243609</v>
+        <v>1.03631994011082</v>
       </c>
       <c r="L8">
-        <v>1.015661435066</v>
+        <v>1.028980899275884</v>
       </c>
       <c r="M8">
-        <v>1.018365021165604</v>
+        <v>1.040296853709084</v>
       </c>
       <c r="N8">
-        <v>1.021038757718119</v>
+        <v>1.032450157945691</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9872208921360183</v>
+        <v>1.023783453707819</v>
       </c>
       <c r="D9">
-        <v>1.024865370830834</v>
+        <v>1.032376289203077</v>
       </c>
       <c r="E9">
-        <v>0.9960572031740736</v>
+        <v>1.024394640564982</v>
       </c>
       <c r="F9">
-        <v>0.9946330779901945</v>
+        <v>1.034862300497709</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04399214708795</v>
+        <v>1.035490523547371</v>
       </c>
       <c r="J9">
-        <v>1.013233126917175</v>
+        <v>1.02966032703953</v>
       </c>
       <c r="K9">
-        <v>1.037567507077714</v>
+        <v>1.035550733481907</v>
       </c>
       <c r="L9">
-        <v>1.009214575058284</v>
+        <v>1.027595547167567</v>
       </c>
       <c r="M9">
-        <v>1.007813834075089</v>
+        <v>1.038028594069461</v>
       </c>
       <c r="N9">
-        <v>1.014672034176861</v>
+        <v>1.031122562807616</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.979718897790278</v>
+        <v>1.022347233599032</v>
       </c>
       <c r="D10">
-        <v>1.020637552593086</v>
+        <v>1.031572773646327</v>
       </c>
       <c r="E10">
-        <v>0.990145703318245</v>
+        <v>1.023179722622176</v>
       </c>
       <c r="F10">
-        <v>0.9857655558547606</v>
+        <v>1.033059679642205</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041574612847617</v>
+        <v>1.035141576657848</v>
       </c>
       <c r="J10">
-        <v>1.008760944775208</v>
+        <v>1.028774746505995</v>
       </c>
       <c r="K10">
-        <v>1.03464392590647</v>
+        <v>1.035034265113197</v>
       </c>
       <c r="L10">
-        <v>1.00469518911695</v>
+        <v>1.02667176070826</v>
       </c>
       <c r="M10">
-        <v>1.000396663327316</v>
+        <v>1.036515816633923</v>
       </c>
       <c r="N10">
-        <v>1.010193501023286</v>
+        <v>1.030235724648146</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9763740385858464</v>
+        <v>1.021725655151515</v>
       </c>
       <c r="D11">
-        <v>1.018759241616089</v>
+        <v>1.031224874615155</v>
       </c>
       <c r="E11">
-        <v>0.9875195510430065</v>
+        <v>1.022654414988688</v>
       </c>
       <c r="F11">
-        <v>0.9818111673102751</v>
+        <v>1.03227967315954</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040484307824543</v>
+        <v>1.034988861007674</v>
       </c>
       <c r="J11">
-        <v>1.00676382028009</v>
+        <v>1.028390867726937</v>
       </c>
       <c r="K11">
-        <v>1.033335850046549</v>
+        <v>1.034809771095088</v>
       </c>
       <c r="L11">
-        <v>1.002680731803659</v>
+        <v>1.026271708326757</v>
       </c>
       <c r="M11">
-        <v>0.9970844480976806</v>
+        <v>1.035860623601897</v>
       </c>
       <c r="N11">
-        <v>1.008193540382312</v>
+        <v>1.029851300717191</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9751162693847628</v>
+        <v>1.021494820955207</v>
       </c>
       <c r="D12">
-        <v>1.018054074953245</v>
+        <v>1.031095655200043</v>
       </c>
       <c r="E12">
-        <v>0.9865335431968957</v>
+        <v>1.022459407514664</v>
       </c>
       <c r="F12">
-        <v>0.9803240190434367</v>
+        <v>1.031990024847864</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040072517424617</v>
+        <v>1.034931892812482</v>
       </c>
       <c r="J12">
-        <v>1.006012408809654</v>
+        <v>1.028248216041158</v>
       </c>
       <c r="K12">
-        <v>1.032843372933012</v>
+        <v>1.034726255748156</v>
       </c>
       <c r="L12">
-        <v>1.001923368247021</v>
+        <v>1.026123104730511</v>
       </c>
       <c r="M12">
-        <v>0.9958381441159954</v>
+        <v>1.035617232991665</v>
       </c>
       <c r="N12">
-        <v>1.0074410618214</v>
+        <v>1.029708446449655</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9753867736460424</v>
+        <v>1.021544333506826</v>
       </c>
       <c r="D13">
-        <v>1.018205679412475</v>
+        <v>1.031123372918004</v>
       </c>
       <c r="E13">
-        <v>0.9867455314828143</v>
+        <v>1.0225012320519</v>
       </c>
       <c r="F13">
-        <v>0.9806438643639738</v>
+        <v>1.032052151741838</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040161160212085</v>
+        <v>1.034944123663301</v>
       </c>
       <c r="J13">
-        <v>1.006174031215763</v>
+        <v>1.028278818109182</v>
       </c>
       <c r="K13">
-        <v>1.032949314096632</v>
+        <v>1.034744175863736</v>
       </c>
       <c r="L13">
-        <v>1.002086245068474</v>
+        <v>1.026154980981643</v>
       </c>
       <c r="M13">
-        <v>0.9961062197353439</v>
+        <v>1.03566944213539</v>
       </c>
       <c r="N13">
-        <v>1.007602913749863</v>
+        <v>1.029739091976126</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9762703890543688</v>
+        <v>1.021706573348632</v>
       </c>
       <c r="D14">
-        <v>1.018701106812471</v>
+        <v>1.031214193171574</v>
       </c>
       <c r="E14">
-        <v>0.9874382656624892</v>
+        <v>1.022638293254773</v>
       </c>
       <c r="F14">
-        <v>0.9816886192898916</v>
+        <v>1.032255729092872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040450409490506</v>
+        <v>1.034984156949193</v>
       </c>
       <c r="J14">
-        <v>1.006701906920171</v>
+        <v>1.028379077355889</v>
       </c>
       <c r="K14">
-        <v>1.033295277978143</v>
+        <v>1.034802870301979</v>
       </c>
       <c r="L14">
-        <v>1.002618316407949</v>
+        <v>1.026259424832244</v>
       </c>
       <c r="M14">
-        <v>0.9969817600425788</v>
+        <v>1.035840505322974</v>
       </c>
       <c r="N14">
-        <v>1.00813153909832</v>
+        <v>1.029839493602464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9768127545295937</v>
+        <v>1.021806541007122</v>
       </c>
       <c r="D15">
-        <v>1.019005355044849</v>
+        <v>1.031270151337035</v>
       </c>
       <c r="E15">
-        <v>0.9878636683255011</v>
+        <v>1.022722756476852</v>
       </c>
       <c r="F15">
-        <v>0.982329866944217</v>
+        <v>1.032381170517845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040627715766897</v>
+        <v>1.035008790618638</v>
       </c>
       <c r="J15">
-        <v>1.007025862761849</v>
+        <v>1.028440842186178</v>
       </c>
       <c r="K15">
-        <v>1.033507554916102</v>
+        <v>1.034839016912073</v>
       </c>
       <c r="L15">
-        <v>1.002944922340446</v>
+        <v>1.026323775317713</v>
       </c>
       <c r="M15">
-        <v>0.9975190612078025</v>
+        <v>1.035945899980278</v>
       </c>
       <c r="N15">
-        <v>1.008455954994452</v>
+        <v>1.029901346145896</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9799387819946718</v>
+        <v>1.022388492377911</v>
       </c>
       <c r="D16">
-        <v>1.020761179311946</v>
+        <v>1.031595863287422</v>
       </c>
       <c r="E16">
-        <v>0.9903185460762269</v>
+        <v>1.023214601655333</v>
       </c>
       <c r="F16">
-        <v>0.9860254888044309</v>
+        <v>1.033111457456805</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041646033976492</v>
+        <v>1.035151677816291</v>
       </c>
       <c r="J16">
-        <v>1.008892169569302</v>
+        <v>1.028800214548341</v>
       </c>
       <c r="K16">
-        <v>1.034729828226376</v>
+        <v>1.035049146003874</v>
       </c>
       <c r="L16">
-        <v>1.004827631298574</v>
+        <v>1.026698309941608</v>
       </c>
       <c r="M16">
-        <v>1.000614291155751</v>
+        <v>1.036559296455871</v>
       </c>
       <c r="N16">
-        <v>1.01032491217164</v>
+        <v>1.030261228858034</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9818732550074013</v>
+        <v>1.022753619599708</v>
       </c>
       <c r="D17">
-        <v>1.021849587559975</v>
+        <v>1.031800182476823</v>
       </c>
       <c r="E17">
-        <v>0.9918402590190151</v>
+        <v>1.023523327290147</v>
       </c>
       <c r="F17">
-        <v>0.9883122113243217</v>
+        <v>1.033569691557634</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042272969948516</v>
+        <v>1.035240873978587</v>
       </c>
       <c r="J17">
-        <v>1.010046291621785</v>
+        <v>1.029025528212546</v>
       </c>
       <c r="K17">
-        <v>1.035485061407289</v>
+        <v>1.035180724875871</v>
       </c>
       <c r="L17">
-        <v>1.005992886845311</v>
+        <v>1.026933233590566</v>
       </c>
       <c r="M17">
-        <v>1.002528320985501</v>
+        <v>1.036944023483488</v>
       </c>
       <c r="N17">
-        <v>1.011480673209817</v>
+        <v>1.030486862493486</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9829923553994028</v>
+        <v>1.022966622426796</v>
       </c>
       <c r="D18">
-        <v>1.022479864167958</v>
+        <v>1.031919361054064</v>
       </c>
       <c r="E18">
-        <v>0.9927214782237441</v>
+        <v>1.023703474976835</v>
       </c>
       <c r="F18">
-        <v>0.9896350290499707</v>
+        <v>1.033837023904197</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042634473393457</v>
+        <v>1.03529274431523</v>
       </c>
       <c r="J18">
-        <v>1.010713654857841</v>
+        <v>1.029156909630357</v>
       </c>
       <c r="K18">
-        <v>1.035921528739089</v>
+        <v>1.035257389586573</v>
       </c>
       <c r="L18">
-        <v>1.006667042415454</v>
+        <v>1.027070256023383</v>
       </c>
       <c r="M18">
-        <v>1.003635106490028</v>
+        <v>1.03716841374603</v>
       </c>
       <c r="N18">
-        <v>1.012148984178216</v>
+        <v>1.030618430487979</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9833723963692109</v>
+        <v>1.023039256010229</v>
       </c>
       <c r="D19">
-        <v>1.022694005852567</v>
+        <v>1.031959998273174</v>
       </c>
       <c r="E19">
-        <v>0.9930208869646511</v>
+        <v>1.02376491307575</v>
       </c>
       <c r="F19">
-        <v>0.9900842432653849</v>
+        <v>1.033928186181516</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042757035921902</v>
+        <v>1.035310404237732</v>
       </c>
       <c r="J19">
-        <v>1.01094023587118</v>
+        <v>1.029201700457516</v>
       </c>
       <c r="K19">
-        <v>1.036069674121555</v>
+        <v>1.0352835161627</v>
       </c>
       <c r="L19">
-        <v>1.006895989487231</v>
+        <v>1.027116976337912</v>
       </c>
       <c r="M19">
-        <v>1.004010883444238</v>
+        <v>1.037244922571235</v>
       </c>
       <c r="N19">
-        <v>1.012375886962583</v>
+        <v>1.030663284923251</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9816666665502195</v>
+        <v>1.022714441767066</v>
       </c>
       <c r="D20">
-        <v>1.021733286966642</v>
+        <v>1.031778260676466</v>
       </c>
       <c r="E20">
-        <v>0.9916776564199844</v>
+        <v>1.023490196367641</v>
       </c>
       <c r="F20">
-        <v>0.9880680118073517</v>
+        <v>1.033520521983667</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04220613964268</v>
+        <v>1.03523132023532</v>
       </c>
       <c r="J20">
-        <v>1.009923070244955</v>
+        <v>1.029001358345796</v>
       </c>
       <c r="K20">
-        <v>1.035404452549056</v>
+        <v>1.035166616288675</v>
       </c>
       <c r="L20">
-        <v>1.005868439955611</v>
+        <v>1.026908028972626</v>
       </c>
       <c r="M20">
-        <v>1.002323966619849</v>
+        <v>1.036902747415554</v>
       </c>
       <c r="N20">
-        <v>1.011357276844498</v>
+        <v>1.030462658302752</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9760106169342585</v>
+        <v>1.021658796437837</v>
       </c>
       <c r="D21">
-        <v>1.018555424923082</v>
+        <v>1.031187448699159</v>
       </c>
       <c r="E21">
-        <v>0.9872345682894734</v>
+        <v>1.022597928959312</v>
       </c>
       <c r="F21">
-        <v>0.9813814796251357</v>
+        <v>1.032195778408548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040365422821905</v>
+        <v>1.03497237484296</v>
       </c>
       <c r="J21">
-        <v>1.006546729463512</v>
+        <v>1.028349555213981</v>
       </c>
       <c r="K21">
-        <v>1.033193584662776</v>
+        <v>1.034785589786565</v>
       </c>
       <c r="L21">
-        <v>1.002461889858262</v>
+        <v>1.026228668890591</v>
       </c>
       <c r="M21">
-        <v>0.9967243844662471</v>
+        <v>1.035790132106926</v>
       </c>
       <c r="N21">
-        <v>1.007976141271874</v>
+        <v>1.029809929535728</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9723652151905057</v>
+        <v>1.020995346628376</v>
       </c>
       <c r="D22">
-        <v>1.016513933782227</v>
+        <v>1.030816015907011</v>
       </c>
       <c r="E22">
-        <v>0.984379746886606</v>
+        <v>1.022037591864936</v>
       </c>
       <c r="F22">
-        <v>0.9770708426735696</v>
+        <v>1.031363327011287</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039168586041795</v>
+        <v>1.034808161053469</v>
       </c>
       <c r="J22">
-        <v>1.004368137628071</v>
+        <v>1.027939382196503</v>
       </c>
       <c r="K22">
-        <v>1.031765194638433</v>
+        <v>1.034545281598072</v>
       </c>
       <c r="L22">
-        <v>1.000267127564948</v>
+        <v>1.025801491965961</v>
       </c>
       <c r="M22">
-        <v>0.9931106387971719</v>
+        <v>1.035090455032677</v>
       </c>
       <c r="N22">
-        <v>1.005794455586138</v>
+        <v>1.029399174025518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9743064694222987</v>
+        <v>1.021347027570571</v>
       </c>
       <c r="D23">
-        <v>1.017600398018502</v>
+        <v>1.031012915724757</v>
       </c>
       <c r="E23">
-        <v>0.9858991467572941</v>
+        <v>1.022334573614916</v>
       </c>
       <c r="F23">
-        <v>0.979366476320871</v>
+        <v>1.031804581049609</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039806891199159</v>
+        <v>1.034895346862991</v>
       </c>
       <c r="J23">
-        <v>1.005528504956801</v>
+        <v>1.028156856467362</v>
       </c>
       <c r="K23">
-        <v>1.032526138933052</v>
+        <v>1.034672743519936</v>
       </c>
       <c r="L23">
-        <v>1.001435792593077</v>
+        <v>1.026027949743405</v>
       </c>
       <c r="M23">
-        <v>0.9950354933328909</v>
+        <v>1.035461379617285</v>
       </c>
       <c r="N23">
-        <v>1.006956470769571</v>
+        <v>1.029616957134785</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9817600434891248</v>
+        <v>1.022732144449604</v>
       </c>
       <c r="D24">
-        <v>1.021785852309134</v>
+        <v>1.031788166186414</v>
       </c>
       <c r="E24">
-        <v>0.9917511491807666</v>
+        <v>1.023505166579172</v>
       </c>
       <c r="F24">
-        <v>0.9881783889371204</v>
+        <v>1.033542739436313</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04223635027196</v>
+        <v>1.035235637643556</v>
       </c>
       <c r="J24">
-        <v>1.009978766621215</v>
+        <v>1.029012279792515</v>
       </c>
       <c r="K24">
-        <v>1.035440888710612</v>
+        <v>1.035172991608535</v>
       </c>
       <c r="L24">
-        <v>1.005924689167871</v>
+        <v>1.026919417868667</v>
       </c>
       <c r="M24">
-        <v>1.002416335272872</v>
+        <v>1.036921398338583</v>
       </c>
       <c r="N24">
-        <v>1.011413052316001</v>
+        <v>1.030473595259179</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9900493414235073</v>
+        <v>1.024340682110795</v>
       </c>
       <c r="D25">
-        <v>1.026464390484416</v>
+        <v>1.032687899717611</v>
       </c>
       <c r="E25">
-        <v>0.9982938350839788</v>
+        <v>1.024866444180136</v>
       </c>
       <c r="F25">
-        <v>0.9979762082606104</v>
+        <v>1.035561822288039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044892509293319</v>
+        <v>1.035624393973733</v>
       </c>
       <c r="J25">
-        <v>1.014916288936586</v>
+        <v>1.030003370670508</v>
       </c>
       <c r="K25">
-        <v>1.038665316088638</v>
+        <v>1.035750241675002</v>
       </c>
       <c r="L25">
-        <v>1.010918694930844</v>
+        <v>1.027953735680976</v>
       </c>
       <c r="M25">
-        <v>1.010606022438552</v>
+        <v>1.038615100284672</v>
       </c>
       <c r="N25">
-        <v>1.016357586479401</v>
+        <v>1.031466093599898</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025624586480298</v>
+        <v>0.9963984669257581</v>
       </c>
       <c r="D2">
-        <v>1.033405549184609</v>
+        <v>1.030062757693609</v>
       </c>
       <c r="E2">
-        <v>1.025954472687689</v>
+        <v>1.003330535505013</v>
       </c>
       <c r="F2">
-        <v>1.037173900432384</v>
+        <v>1.005481371176918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035929501502842</v>
+        <v>1.046888371410256</v>
       </c>
       <c r="J2">
-        <v>1.030792566634761</v>
+        <v>1.018687435443223</v>
       </c>
       <c r="K2">
-        <v>1.036207992280795</v>
+        <v>1.041118574744432</v>
       </c>
       <c r="L2">
-        <v>1.028778532994936</v>
+        <v>1.014743664872271</v>
       </c>
       <c r="M2">
-        <v>1.039965539177091</v>
+        <v>1.016864866365427</v>
       </c>
       <c r="N2">
-        <v>1.032256410312949</v>
+        <v>1.020134088446629</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026557352035538</v>
+        <v>1.000868842460585</v>
       </c>
       <c r="D3">
-        <v>1.033926613548358</v>
+        <v>1.032603036734803</v>
       </c>
       <c r="E3">
-        <v>1.026745781259389</v>
+        <v>1.006890510224297</v>
       </c>
       <c r="F3">
-        <v>1.038345384730879</v>
+        <v>1.010767054843364</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036148148833666</v>
+        <v>1.048270338807282</v>
       </c>
       <c r="J3">
-        <v>1.031364831758593</v>
+        <v>1.021335849944819</v>
       </c>
       <c r="K3">
-        <v>1.036538799109067</v>
+        <v>1.042835081689298</v>
       </c>
       <c r="L3">
-        <v>1.02937729738806</v>
+        <v>1.017435978375355</v>
       </c>
       <c r="M3">
-        <v>1.04094581874574</v>
+        <v>1.021263998162675</v>
       </c>
       <c r="N3">
-        <v>1.03282948811889</v>
+        <v>1.0227862640006</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027161159777449</v>
+        <v>1.003700637858478</v>
       </c>
       <c r="D4">
-        <v>1.034263762112921</v>
+        <v>1.034214701783992</v>
       </c>
       <c r="E4">
-        <v>1.027258408185518</v>
+        <v>1.009151623186575</v>
       </c>
       <c r="F4">
-        <v>1.039103866130239</v>
+        <v>1.014116239105967</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036288288934316</v>
+        <v>1.04913465709222</v>
       </c>
       <c r="J4">
-        <v>1.031734770078981</v>
+        <v>1.023010152326341</v>
       </c>
       <c r="K4">
-        <v>1.036752125522592</v>
+        <v>1.043917004175298</v>
       </c>
       <c r="L4">
-        <v>1.029764682354929</v>
+        <v>1.019140836864672</v>
       </c>
       <c r="M4">
-        <v>1.041580006727537</v>
+        <v>1.024047227400319</v>
       </c>
       <c r="N4">
-        <v>1.033199951794125</v>
+        <v>1.024462944083549</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027415058809269</v>
+        <v>1.004877087250238</v>
       </c>
       <c r="D5">
-        <v>1.034405494291105</v>
+        <v>1.034884773085187</v>
       </c>
       <c r="E5">
-        <v>1.027474058468713</v>
+        <v>1.010092387598062</v>
       </c>
       <c r="F5">
-        <v>1.039422840144032</v>
+        <v>1.01550789802261</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036346882638335</v>
+        <v>1.049491022094364</v>
       </c>
       <c r="J5">
-        <v>1.031890206374364</v>
+        <v>1.023704894892167</v>
       </c>
       <c r="K5">
-        <v>1.036841632783871</v>
+        <v>1.044365123409837</v>
       </c>
       <c r="L5">
-        <v>1.029927524896414</v>
+        <v>1.019848929241732</v>
       </c>
       <c r="M5">
-        <v>1.041846590893657</v>
+        <v>1.025202691281708</v>
       </c>
       <c r="N5">
-        <v>1.033355608826877</v>
+        <v>1.025158673263506</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027457692971336</v>
+        <v>1.005073809932539</v>
       </c>
       <c r="D6">
-        <v>1.034429291405752</v>
+        <v>1.034996848543815</v>
       </c>
       <c r="E6">
-        <v>1.027510275390987</v>
+        <v>1.01024978081916</v>
       </c>
       <c r="F6">
-        <v>1.039476403644662</v>
+        <v>1.015740624155814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036356701927993</v>
+        <v>1.049550451835456</v>
       </c>
       <c r="J6">
-        <v>1.031916299762925</v>
+        <v>1.023821017970791</v>
       </c>
       <c r="K6">
-        <v>1.036856651147732</v>
+        <v>1.044439975179589</v>
       </c>
       <c r="L6">
-        <v>1.02995486602624</v>
+        <v>1.019967323068419</v>
       </c>
       <c r="M6">
-        <v>1.041891349876214</v>
+        <v>1.025395857686782</v>
       </c>
       <c r="N6">
-        <v>1.033381739271042</v>
+        <v>1.025274961250222</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027164552160635</v>
+        <v>1.003716412112188</v>
       </c>
       <c r="D7">
-        <v>1.034265655967084</v>
+        <v>1.03422368440864</v>
       </c>
       <c r="E7">
-        <v>1.027261289158862</v>
+        <v>1.009164231812169</v>
       </c>
       <c r="F7">
-        <v>1.039108127850485</v>
+        <v>1.014134897869203</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036289073129025</v>
+        <v>1.049139446128919</v>
       </c>
       <c r="J7">
-        <v>1.031736847364247</v>
+        <v>1.023019471017806</v>
       </c>
       <c r="K7">
-        <v>1.036753322212461</v>
+        <v>1.0439230181596</v>
       </c>
       <c r="L7">
-        <v>1.029766858321317</v>
+        <v>1.019150331970255</v>
       </c>
       <c r="M7">
-        <v>1.041583568950176</v>
+        <v>1.024062723449806</v>
       </c>
       <c r="N7">
-        <v>1.033202032029374</v>
+        <v>1.024472276008624</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025939767628826</v>
+        <v>0.9979221740627537</v>
       </c>
       <c r="D8">
-        <v>1.033581647511916</v>
+        <v>1.030928022196712</v>
       </c>
       <c r="E8">
-        <v>1.026221774782424</v>
+        <v>1.004542647223833</v>
       </c>
       <c r="F8">
-        <v>1.037569715326242</v>
+        <v>1.007282804623842</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036003671379615</v>
+        <v>1.047361708665148</v>
       </c>
       <c r="J8">
-        <v>1.03098603951383</v>
+        <v>1.019590821802457</v>
       </c>
       <c r="K8">
-        <v>1.03631994011082</v>
+        <v>1.041704737243608</v>
       </c>
       <c r="L8">
-        <v>1.028980899275884</v>
+        <v>1.015661435065999</v>
       </c>
       <c r="M8">
-        <v>1.040296853709084</v>
+        <v>1.018365021165603</v>
       </c>
       <c r="N8">
-        <v>1.032450157945691</v>
+        <v>1.021038757718118</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023783453707819</v>
+        <v>0.9872208921360175</v>
       </c>
       <c r="D9">
-        <v>1.032376289203077</v>
+        <v>1.024865370830833</v>
       </c>
       <c r="E9">
-        <v>1.024394640564982</v>
+        <v>0.996057203174073</v>
       </c>
       <c r="F9">
-        <v>1.034862300497709</v>
+        <v>0.9946330779901936</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035490523547371</v>
+        <v>1.04399214708795</v>
       </c>
       <c r="J9">
-        <v>1.02966032703953</v>
+        <v>1.013233126917174</v>
       </c>
       <c r="K9">
-        <v>1.035550733481907</v>
+        <v>1.037567507077713</v>
       </c>
       <c r="L9">
-        <v>1.027595547167567</v>
+        <v>1.009214575058283</v>
       </c>
       <c r="M9">
-        <v>1.038028594069461</v>
+        <v>1.007813834075089</v>
       </c>
       <c r="N9">
-        <v>1.031122562807616</v>
+        <v>1.01467203417686</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022347233599032</v>
+        <v>0.9797188977902777</v>
       </c>
       <c r="D10">
-        <v>1.031572773646327</v>
+        <v>1.020637552593085</v>
       </c>
       <c r="E10">
-        <v>1.023179722622176</v>
+        <v>0.9901457033182443</v>
       </c>
       <c r="F10">
-        <v>1.033059679642205</v>
+        <v>0.98576555585476</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035141576657848</v>
+        <v>1.041574612847616</v>
       </c>
       <c r="J10">
-        <v>1.028774746505995</v>
+        <v>1.008760944775207</v>
       </c>
       <c r="K10">
-        <v>1.035034265113197</v>
+        <v>1.03464392590647</v>
       </c>
       <c r="L10">
-        <v>1.02667176070826</v>
+        <v>1.004695189116949</v>
       </c>
       <c r="M10">
-        <v>1.036515816633923</v>
+        <v>1.000396663327316</v>
       </c>
       <c r="N10">
-        <v>1.030235724648146</v>
+        <v>1.010193501023285</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021725655151515</v>
+        <v>0.9763740385858456</v>
       </c>
       <c r="D11">
-        <v>1.031224874615155</v>
+        <v>1.018759241616089</v>
       </c>
       <c r="E11">
-        <v>1.022654414988688</v>
+        <v>0.9875195510430059</v>
       </c>
       <c r="F11">
-        <v>1.03227967315954</v>
+        <v>0.9818111673102741</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034988861007674</v>
+        <v>1.040484307824543</v>
       </c>
       <c r="J11">
-        <v>1.028390867726937</v>
+        <v>1.00676382028009</v>
       </c>
       <c r="K11">
-        <v>1.034809771095088</v>
+        <v>1.033335850046549</v>
       </c>
       <c r="L11">
-        <v>1.026271708326757</v>
+        <v>1.002680731803659</v>
       </c>
       <c r="M11">
-        <v>1.035860623601897</v>
+        <v>0.9970844480976797</v>
       </c>
       <c r="N11">
-        <v>1.029851300717191</v>
+        <v>1.008193540382311</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021494820955207</v>
+        <v>0.9751162693847631</v>
       </c>
       <c r="D12">
-        <v>1.031095655200043</v>
+        <v>1.018054074953245</v>
       </c>
       <c r="E12">
-        <v>1.022459407514664</v>
+        <v>0.9865335431968959</v>
       </c>
       <c r="F12">
-        <v>1.031990024847864</v>
+        <v>0.9803240190434368</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034931892812482</v>
+        <v>1.040072517424617</v>
       </c>
       <c r="J12">
-        <v>1.028248216041158</v>
+        <v>1.006012408809654</v>
       </c>
       <c r="K12">
-        <v>1.034726255748156</v>
+        <v>1.032843372933012</v>
       </c>
       <c r="L12">
-        <v>1.026123104730511</v>
+        <v>1.001923368247022</v>
       </c>
       <c r="M12">
-        <v>1.035617232991665</v>
+        <v>0.9958381441159956</v>
       </c>
       <c r="N12">
-        <v>1.029708446449655</v>
+        <v>1.0074410618214</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021544333506826</v>
+        <v>0.9753867736460422</v>
       </c>
       <c r="D13">
-        <v>1.031123372918004</v>
+        <v>1.018205679412475</v>
       </c>
       <c r="E13">
-        <v>1.0225012320519</v>
+        <v>0.9867455314828139</v>
       </c>
       <c r="F13">
-        <v>1.032052151741838</v>
+        <v>0.9806438643639737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034944123663301</v>
+        <v>1.040161160212085</v>
       </c>
       <c r="J13">
-        <v>1.028278818109182</v>
+        <v>1.006174031215762</v>
       </c>
       <c r="K13">
-        <v>1.034744175863736</v>
+        <v>1.032949314096631</v>
       </c>
       <c r="L13">
-        <v>1.026154980981643</v>
+        <v>1.002086245068473</v>
       </c>
       <c r="M13">
-        <v>1.03566944213539</v>
+        <v>0.9961062197353439</v>
       </c>
       <c r="N13">
-        <v>1.029739091976126</v>
+        <v>1.007602913749863</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021706573348632</v>
+        <v>0.9762703890543679</v>
       </c>
       <c r="D14">
-        <v>1.031214193171574</v>
+        <v>1.01870110681247</v>
       </c>
       <c r="E14">
-        <v>1.022638293254773</v>
+        <v>0.9874382656624879</v>
       </c>
       <c r="F14">
-        <v>1.032255729092872</v>
+        <v>0.9816886192898903</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034984156949193</v>
+        <v>1.040450409490506</v>
       </c>
       <c r="J14">
-        <v>1.028379077355889</v>
+        <v>1.00670190692017</v>
       </c>
       <c r="K14">
-        <v>1.034802870301979</v>
+        <v>1.033295277978143</v>
       </c>
       <c r="L14">
-        <v>1.026259424832244</v>
+        <v>1.002618316407947</v>
       </c>
       <c r="M14">
-        <v>1.035840505322974</v>
+        <v>0.9969817600425775</v>
       </c>
       <c r="N14">
-        <v>1.029839493602464</v>
+        <v>1.008131539098319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021806541007122</v>
+        <v>0.9768127545295936</v>
       </c>
       <c r="D15">
-        <v>1.031270151337035</v>
+        <v>1.01900535504485</v>
       </c>
       <c r="E15">
-        <v>1.022722756476852</v>
+        <v>0.9878636683255007</v>
       </c>
       <c r="F15">
-        <v>1.032381170517845</v>
+        <v>0.9823298669442171</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035008790618638</v>
+        <v>1.040627715766897</v>
       </c>
       <c r="J15">
-        <v>1.028440842186178</v>
+        <v>1.007025862761849</v>
       </c>
       <c r="K15">
-        <v>1.034839016912073</v>
+        <v>1.033507554916102</v>
       </c>
       <c r="L15">
-        <v>1.026323775317713</v>
+        <v>1.002944922340446</v>
       </c>
       <c r="M15">
-        <v>1.035945899980278</v>
+        <v>0.9975190612078026</v>
       </c>
       <c r="N15">
-        <v>1.029901346145896</v>
+        <v>1.008455954994452</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022388492377911</v>
+        <v>0.9799387819946712</v>
       </c>
       <c r="D16">
-        <v>1.031595863287422</v>
+        <v>1.020761179311946</v>
       </c>
       <c r="E16">
-        <v>1.023214601655333</v>
+        <v>0.9903185460762264</v>
       </c>
       <c r="F16">
-        <v>1.033111457456805</v>
+        <v>0.9860254888044304</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035151677816291</v>
+        <v>1.041646033976492</v>
       </c>
       <c r="J16">
-        <v>1.028800214548341</v>
+        <v>1.008892169569302</v>
       </c>
       <c r="K16">
-        <v>1.035049146003874</v>
+        <v>1.034729828226376</v>
       </c>
       <c r="L16">
-        <v>1.026698309941608</v>
+        <v>1.004827631298574</v>
       </c>
       <c r="M16">
-        <v>1.036559296455871</v>
+        <v>1.00061429115575</v>
       </c>
       <c r="N16">
-        <v>1.030261228858034</v>
+        <v>1.01032491217164</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022753619599708</v>
+        <v>0.9818732550074012</v>
       </c>
       <c r="D17">
-        <v>1.031800182476823</v>
+        <v>1.021849587559976</v>
       </c>
       <c r="E17">
-        <v>1.023523327290147</v>
+        <v>0.9918402590190147</v>
       </c>
       <c r="F17">
-        <v>1.033569691557634</v>
+        <v>0.9883122113243217</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035240873978587</v>
+        <v>1.042272969948516</v>
       </c>
       <c r="J17">
-        <v>1.029025528212546</v>
+        <v>1.010046291621785</v>
       </c>
       <c r="K17">
-        <v>1.035180724875871</v>
+        <v>1.035485061407289</v>
       </c>
       <c r="L17">
-        <v>1.026933233590566</v>
+        <v>1.005992886845311</v>
       </c>
       <c r="M17">
-        <v>1.036944023483488</v>
+        <v>1.002528320985501</v>
       </c>
       <c r="N17">
-        <v>1.030486862493486</v>
+        <v>1.011480673209817</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022966622426796</v>
+        <v>0.9829923553994017</v>
       </c>
       <c r="D18">
-        <v>1.031919361054064</v>
+        <v>1.022479864167957</v>
       </c>
       <c r="E18">
-        <v>1.023703474976835</v>
+        <v>0.9927214782237432</v>
       </c>
       <c r="F18">
-        <v>1.033837023904197</v>
+        <v>0.9896350290499698</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03529274431523</v>
+        <v>1.042634473393456</v>
       </c>
       <c r="J18">
-        <v>1.029156909630357</v>
+        <v>1.01071365485784</v>
       </c>
       <c r="K18">
-        <v>1.035257389586573</v>
+        <v>1.035921528739089</v>
       </c>
       <c r="L18">
-        <v>1.027070256023383</v>
+        <v>1.006667042415454</v>
       </c>
       <c r="M18">
-        <v>1.03716841374603</v>
+        <v>1.003635106490027</v>
       </c>
       <c r="N18">
-        <v>1.030618430487979</v>
+        <v>1.012148984178215</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023039256010229</v>
+        <v>0.9833723963692101</v>
       </c>
       <c r="D19">
-        <v>1.031959998273174</v>
+        <v>1.022694005852567</v>
       </c>
       <c r="E19">
-        <v>1.02376491307575</v>
+        <v>0.9930208869646499</v>
       </c>
       <c r="F19">
-        <v>1.033928186181516</v>
+        <v>0.9900842432653845</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035310404237732</v>
+        <v>1.042757035921902</v>
       </c>
       <c r="J19">
-        <v>1.029201700457516</v>
+        <v>1.010940235871179</v>
       </c>
       <c r="K19">
-        <v>1.0352835161627</v>
+        <v>1.036069674121555</v>
       </c>
       <c r="L19">
-        <v>1.027116976337912</v>
+        <v>1.006895989487229</v>
       </c>
       <c r="M19">
-        <v>1.037244922571235</v>
+        <v>1.004010883444238</v>
       </c>
       <c r="N19">
-        <v>1.030663284923251</v>
+        <v>1.012375886962582</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022714441767066</v>
+        <v>0.9816666665502187</v>
       </c>
       <c r="D20">
-        <v>1.031778260676466</v>
+        <v>1.021733286966642</v>
       </c>
       <c r="E20">
-        <v>1.023490196367641</v>
+        <v>0.9916776564199836</v>
       </c>
       <c r="F20">
-        <v>1.033520521983667</v>
+        <v>0.988068011807351</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03523132023532</v>
+        <v>1.04220613964268</v>
       </c>
       <c r="J20">
-        <v>1.029001358345796</v>
+        <v>1.009923070244954</v>
       </c>
       <c r="K20">
-        <v>1.035166616288675</v>
+        <v>1.035404452549056</v>
       </c>
       <c r="L20">
-        <v>1.026908028972626</v>
+        <v>1.005868439955611</v>
       </c>
       <c r="M20">
-        <v>1.036902747415554</v>
+        <v>1.002323966619848</v>
       </c>
       <c r="N20">
-        <v>1.030462658302752</v>
+        <v>1.011357276844497</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021658796437837</v>
+        <v>0.9760106169342568</v>
       </c>
       <c r="D21">
-        <v>1.031187448699159</v>
+        <v>1.018555424923082</v>
       </c>
       <c r="E21">
-        <v>1.022597928959312</v>
+        <v>0.9872345682894724</v>
       </c>
       <c r="F21">
-        <v>1.032195778408548</v>
+        <v>0.981381479625135</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03497237484296</v>
+        <v>1.040365422821904</v>
       </c>
       <c r="J21">
-        <v>1.028349555213981</v>
+        <v>1.006546729463511</v>
       </c>
       <c r="K21">
-        <v>1.034785589786565</v>
+        <v>1.033193584662776</v>
       </c>
       <c r="L21">
-        <v>1.026228668890591</v>
+        <v>1.002461889858261</v>
       </c>
       <c r="M21">
-        <v>1.035790132106926</v>
+        <v>0.9967243844662461</v>
       </c>
       <c r="N21">
-        <v>1.029809929535728</v>
+        <v>1.007976141271873</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020995346628376</v>
+        <v>0.9723652151905043</v>
       </c>
       <c r="D22">
-        <v>1.030816015907011</v>
+        <v>1.016513933782226</v>
       </c>
       <c r="E22">
-        <v>1.022037591864936</v>
+        <v>0.9843797468866049</v>
       </c>
       <c r="F22">
-        <v>1.031363327011287</v>
+        <v>0.9770708426735684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034808161053469</v>
+        <v>1.039168586041794</v>
       </c>
       <c r="J22">
-        <v>1.027939382196503</v>
+        <v>1.004368137628069</v>
       </c>
       <c r="K22">
-        <v>1.034545281598072</v>
+        <v>1.031765194638433</v>
       </c>
       <c r="L22">
-        <v>1.025801491965961</v>
+        <v>1.000267127564946</v>
       </c>
       <c r="M22">
-        <v>1.035090455032677</v>
+        <v>0.9931106387971709</v>
       </c>
       <c r="N22">
-        <v>1.029399174025518</v>
+        <v>1.005794455586137</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021347027570571</v>
+        <v>0.9743064694222983</v>
       </c>
       <c r="D23">
-        <v>1.031012915724757</v>
+        <v>1.017600398018501</v>
       </c>
       <c r="E23">
-        <v>1.022334573614916</v>
+        <v>0.9858991467572935</v>
       </c>
       <c r="F23">
-        <v>1.031804581049609</v>
+        <v>0.9793664763208708</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034895346862991</v>
+        <v>1.039806891199158</v>
       </c>
       <c r="J23">
-        <v>1.028156856467362</v>
+        <v>1.005528504956801</v>
       </c>
       <c r="K23">
-        <v>1.034672743519936</v>
+        <v>1.032526138933051</v>
       </c>
       <c r="L23">
-        <v>1.026027949743405</v>
+        <v>1.001435792593076</v>
       </c>
       <c r="M23">
-        <v>1.035461379617285</v>
+        <v>0.9950354933328905</v>
       </c>
       <c r="N23">
-        <v>1.029616957134785</v>
+        <v>1.006956470769571</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022732144449604</v>
+        <v>0.9817600434891238</v>
       </c>
       <c r="D24">
-        <v>1.031788166186414</v>
+        <v>1.021785852309133</v>
       </c>
       <c r="E24">
-        <v>1.023505166579172</v>
+        <v>0.9917511491807659</v>
       </c>
       <c r="F24">
-        <v>1.033542739436313</v>
+        <v>0.9881783889371193</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035235637643556</v>
+        <v>1.042236350271959</v>
       </c>
       <c r="J24">
-        <v>1.029012279792515</v>
+        <v>1.009978766621214</v>
       </c>
       <c r="K24">
-        <v>1.035172991608535</v>
+        <v>1.035440888710611</v>
       </c>
       <c r="L24">
-        <v>1.026919417868667</v>
+        <v>1.005924689167871</v>
       </c>
       <c r="M24">
-        <v>1.036921398338583</v>
+        <v>1.002416335272871</v>
       </c>
       <c r="N24">
-        <v>1.030473595259179</v>
+        <v>1.011413052316</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024340682110795</v>
+        <v>0.9900493414235072</v>
       </c>
       <c r="D25">
-        <v>1.032687899717611</v>
+        <v>1.026464390484416</v>
       </c>
       <c r="E25">
-        <v>1.024866444180136</v>
+        <v>0.9982938350839788</v>
       </c>
       <c r="F25">
-        <v>1.035561822288039</v>
+        <v>0.9979762082606105</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035624393973733</v>
+        <v>1.044892509293319</v>
       </c>
       <c r="J25">
-        <v>1.030003370670508</v>
+        <v>1.014916288936586</v>
       </c>
       <c r="K25">
-        <v>1.035750241675002</v>
+        <v>1.038665316088639</v>
       </c>
       <c r="L25">
-        <v>1.027953735680976</v>
+        <v>1.010918694930844</v>
       </c>
       <c r="M25">
-        <v>1.038615100284672</v>
+        <v>1.010606022438552</v>
       </c>
       <c r="N25">
-        <v>1.031466093599898</v>
+        <v>1.016357586479401</v>
       </c>
     </row>
   </sheetData>
